--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,221 +1,559 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC000A9-73E2-4AC3-8DD6-6E75FEFFDE3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>普元公司</t>
-  </si>
-  <si>
-    <t>电话面试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>星期</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>面试时间</t>
+  </si>
+  <si>
+    <t>复试</t>
+  </si>
+  <si>
+    <t>三面</t>
+  </si>
+  <si>
+    <t>面试方式</t>
+  </si>
+  <si>
+    <t>注意事项</t>
+  </si>
+  <si>
+    <t>备注一</t>
+  </si>
+  <si>
+    <t>备注二</t>
+  </si>
+  <si>
+    <t>反馈</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>晋元公司</t>
+  </si>
+  <si>
+    <t>boss</t>
   </si>
   <si>
     <t>周五</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2021/4/9 </t>
-    </r>
+  </si>
+  <si>
+    <t>2021.04.09</t>
+  </si>
+  <si>
+    <t>7：00pm</t>
+  </si>
+  <si>
+    <t>领导反馈进行二面</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>京东零售云技术部</t>
+  </si>
+  <si>
+    <t>会议面试</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>中午13-14</t>
+  </si>
+  <si>
+    <t>打开京东ME-&gt;应用-&gt;JoyMeeting-&gt;加入会议-&gt;输入会议ID入会会议id：596177  密码： 123456          海     鸥 JoyMeeting APP-&gt;手机号短信登录-&gt;加入会议-&gt;输入会议ID入会</t>
+  </si>
+  <si>
+    <t>现场面试</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>下午</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Font-size:14px;line-height:norm"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东零售云技术部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议面试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-04-12 中午13-14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北大医疗信息技术</t>
-  </si>
-  <si>
-    <t>10号线安贞门站C口出或8号线安华桥D2口；公交车安贞桥西站</t>
-  </si>
-  <si>
-    <t>周二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t> 2021-</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>4-13   1:30 PM</t>
+      <t xml:space="preserve">4-13  </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前打电话约时间和地址 01082086616</t>
+  </si>
+  <si>
+    <t>北大医疗信息技术</t>
+  </si>
+  <si>
+    <t>周二</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t> 2021-</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>4-13   6：00 PM</t>
+      <t xml:space="preserve">4-13 </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开京东ME-&gt;应用-&gt;JoyMeeting-&gt;加入会议-&gt;输入会议ID入会会议id：596177  密码： 123456          海     鸥 JoyMeeting APP-&gt;手机号短信登录-&gt;加入会议-&gt;输入会议ID入会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前打电话约时间和地址01082086616</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话13932436131</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话面试</t>
+  </si>
+  <si>
+    <t>10号线安贞门站C口出或8号线安华桥D2口；公交车安贞桥西站</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Font-size:14px;line-height:norm"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -223,29 +561,341 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -294,7 +944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -329,7 +979,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -503,102 +1153,314 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="19.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="15.6" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="55.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
+    <row r="3" ht="55.2" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44298</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5">
         <v>13261604970</v>
       </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" ht="25" customHeight="1" spans="1:13">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" ht="62.4" spans="1:13">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" ht="14.4" spans="1:13">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" ht="14.4" spans="1:13">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" ht="14.4" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" ht="14.4" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" ht="14.4" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273EE0B4-8BD3-4C6C-A901-19DBA4FDB725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>公司</t>
   </si>
@@ -106,6 +112,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4-12</t>
@@ -138,6 +145,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>HR</t>
@@ -147,6 +155,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -156,6 +165,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>010-82343415</t>
@@ -168,9 +178,6 @@
     <t>拉钩</t>
   </si>
   <si>
-    <t>腾讯会议  会议号：971 613 3497</t>
-  </si>
-  <si>
     <t>海淀区东北旺西路8号中关村软件园9号楼国际软件大厦E座1-2层。9号楼即国际软件大厦（沿着面向数字政通这栋楼右手边的通道向前走即到）</t>
   </si>
   <si>
@@ -184,6 +191,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> </t>
@@ -193,7 +201,7 @@
         <sz val="7"/>
         <color rgb="FF222222"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2021-04-13</t>
     </r>
@@ -204,6 +212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -214,6 +223,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -226,6 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -236,6 +247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -260,6 +272,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -270,6 +283,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -303,6 +317,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -313,6 +328,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -331,6 +347,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,6 +359,7 @@
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -349,24 +367,62 @@
     </r>
   </si>
   <si>
+    <t>腾讯会议  会议号：971 613 3497</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9:00 PM</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>猎头推荐</t>
-  </si>
-  <si>
-    <t>视频，待发面试邀请</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏歌智行</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meeting.tencent.com/s/3Kzcto9IWSGb</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯视频面试</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱峰：18686125895</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我感觉不好</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务不合适</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,157 +473,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,194 +535,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -781,253 +544,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1070,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,23 +604,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,72 +640,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1453,35 +927,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="26.8888888888889" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.8888888888889" customWidth="1"/>
-    <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:14">
+    <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1506,26 +979,26 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:14">
+    <row r="2" spans="1:15" ht="27" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1544,18 +1017,18 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="32"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="55.2" spans="1:14">
+    <row r="3" spans="1:15" ht="55.2">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1583,9 +1056,9 @@
       <c r="M3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="34"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:14">
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -1604,16 +1077,16 @@
       <c r="H4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="35"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" ht="46.8" spans="1:14">
+      <c r="N4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="46.8">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1631,18 +1104,20 @@
       <c r="H5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="31" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" ht="78" spans="1:14">
+      <c r="M5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" ht="78">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1660,23 +1135,27 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="J6" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>40</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:14">
+      <c r="M6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>15</v>
@@ -1684,168 +1163,175 @@
       <c r="C7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="J7" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" ht="151.8" spans="1:14">
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" ht="151.80000000000001">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="12">
         <v>44300</v>
       </c>
       <c r="E8" s="20">
-        <v>0.541666666666667</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="J8" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="55.2" spans="1:14">
-      <c r="A9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="23">
-        <v>44300</v>
-      </c>
-      <c r="E9" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="40" t="s">
+      <c r="N8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.8" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" ht="41.4">
+      <c r="A10" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="41"/>
-    </row>
-    <row r="10" ht="41.4" spans="1:14">
-      <c r="A10" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="12">
         <v>44301</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="J10" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="34"/>
-    </row>
-    <row r="11" ht="14.4" spans="1:14">
-      <c r="A11" s="9"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="27"/>
+      <c r="N10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" ht="27.6">
+      <c r="A11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="22">
+        <v>44302</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="14"/>
+      <c r="H11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="34"/>
-    </row>
-    <row r="12" ht="14.4" spans="1:14">
+      <c r="N11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="57.6">
       <c r="A12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="22">
+        <v>44302</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="28">
-        <v>44302</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="15"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" ht="14.4" spans="1:13">
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.4">
       <c r="A13" s="9"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="27"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -1855,12 +1341,12 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" ht="14.4" spans="1:13">
+    <row r="14" spans="1:15" ht="14.4">
       <c r="A14" s="9"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="27"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -1870,12 +1356,12 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" ht="14.4" spans="1:13">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:15">
+      <c r="A15" s="23"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -1885,30 +1371,16 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="29"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
-    <hyperlink ref="I8" r:id="rId2" display="https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d"/>
-    <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
-    <hyperlink ref="I9" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
+    <hyperlink ref="I10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I12" r:id="rId4" location="/pc" xr:uid="{224F6423-92BB-4464-99C3-A10F85CE2A23}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{B169F2F2-A443-49E0-9175-728F3C07961B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273EE0B4-8BD3-4C6C-A901-19DBA4FDB725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA6E00-25D6-447C-8B42-77BBF163CA0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>公司</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>徐先生：15116910263  微信：xw1443976585</t>
-  </si>
-  <si>
-    <t>滴滴-小桔科技</t>
   </si>
   <si>
     <r>
@@ -291,9 +288,6 @@
     </r>
   </si>
   <si>
-    <t>https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d</t>
-  </si>
-  <si>
     <t>会有算法题目</t>
   </si>
   <si>
@@ -415,6 +409,115 @@
   </si>
   <si>
     <t>失败</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00 PM</t>
+  </si>
+  <si>
+    <t>https://z.didi.cn/wzTfoCa</t>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>文思海辉</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀区永泰庄北路38号院</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉钩</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3:30 PM</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐融</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发邮箱 电话面试</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴-小桔科技</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频面试umeet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>视频面试umeet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +638,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -551,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -657,6 +766,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -933,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1113,7 +1250,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N5" s="28"/>
     </row>
@@ -1136,7 +1273,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>38</v>
@@ -1147,15 +1284,15 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
+      <c r="A7" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>15</v>
@@ -1164,200 +1301,237 @@
         <v>31</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="28"/>
     </row>
-    <row r="8" spans="1:15" ht="151.80000000000001">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:15" s="46" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="42">
+        <v>44308</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="45"/>
+    </row>
+    <row r="9" spans="1:15" ht="151.80000000000001">
+      <c r="A9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>44300</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E9" s="20">
         <v>0.54166666666666696</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="28"/>
-    </row>
-    <row r="9" spans="1:15" ht="25.8" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="18"/>
+      <c r="H9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="28"/>
     </row>
-    <row r="10" spans="1:15" ht="41.4">
-      <c r="A10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>55</v>
+    <row r="10" spans="1:15" ht="25.8" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="12">
-        <v>44301</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>56</v>
+        <v>44300</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>59</v>
-      </c>
+      <c r="H10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="28"/>
     </row>
-    <row r="11" spans="1:15" ht="27.6">
-      <c r="A11" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>62</v>
-      </c>
+    <row r="11" spans="1:15" ht="41.4">
+      <c r="A11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="22">
-        <v>44302</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="12">
+        <v>44301</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="34" t="s">
-        <v>65</v>
+      <c r="H11" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="28"/>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="57.6">
-      <c r="A12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:15" ht="27.6">
+      <c r="A12" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="22">
         <v>44302</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="N12" s="28"/>
     </row>
-    <row r="13" spans="1:15" ht="14.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="57.6">
+      <c r="A13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="22">
+        <v>44302</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15" ht="14.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="21"/>
+      <c r="A14" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="22">
+        <v>44303</v>
+      </c>
+      <c r="E14" s="48">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>76</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:15" ht="14.4">
+      <c r="A15" s="9"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1371,14 +1545,57 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="21" spans="1:14" s="46" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="42">
+        <v>44308</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="45"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I12" r:id="rId4" location="/pc" xr:uid="{224F6423-92BB-4464-99C3-A10F85CE2A23}"/>
-    <hyperlink ref="I11" r:id="rId5" xr:uid="{B169F2F2-A443-49E0-9175-728F3C07961B}"/>
+    <hyperlink ref="I13" r:id="rId4" location="/pc" xr:uid="{224F6423-92BB-4464-99C3-A10F85CE2A23}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{B169F2F2-A443-49E0-9175-728F3C07961B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA6E00-25D6-447C-8B42-77BBF163CA0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>公司</t>
   </si>
@@ -105,6 +99,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t> 2021-</t>
     </r>
     <r>
@@ -112,7 +111,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4-12</t>
@@ -145,7 +143,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>HR</t>
@@ -155,7 +152,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -165,30 +161,40 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>010-82343415</t>
     </r>
   </si>
   <si>
+    <t>自我感觉不好</t>
+  </si>
+  <si>
     <t>海泰方圆科</t>
   </si>
   <si>
     <t>拉钩</t>
   </si>
   <si>
+    <t>腾讯会议  会议号：971 613 3497</t>
+  </si>
+  <si>
     <t>海淀区东北旺西路8号中关村软件园9号楼国际软件大厦E座1-2层。9号楼即国际软件大厦（沿着面向数字政通这栋楼右手边的通道向前走即到）</t>
   </si>
   <si>
     <t>徐先生：15116910263  微信：xw1443976585</t>
+  </si>
+  <si>
+    <t>业务不合适</t>
+  </si>
+  <si>
+    <t>滴滴-小桔科技</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> </t>
@@ -198,7 +204,7 @@
         <sz val="7"/>
         <color rgb="FF222222"/>
         <rFont val="PingFangSC-Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2021-04-13</t>
     </r>
@@ -209,7 +215,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -220,7 +225,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,7 +237,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -244,7 +247,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -258,10 +260,10 @@
     <t xml:space="preserve">联系人：19818940725 </t>
   </si>
   <si>
-    <t>安德医智</t>
-  </si>
-  <si>
-    <t>周三</t>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>19:00 PM</t>
   </si>
   <si>
     <r>
@@ -269,41 +271,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>teams</t>
+      <t>视频面试umeet</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> app面试</t>
-    </r>
-  </si>
-  <si>
-    <t>会有算法题目</t>
-  </si>
-  <si>
-    <t>百度-工程效能部</t>
-  </si>
-  <si>
-    <t>如流视频面试系统</t>
-  </si>
-  <si>
-    <t>https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc</t>
-  </si>
-  <si>
-    <t>小米-软件与体验部</t>
-  </si>
-  <si>
-    <t>周四</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://z.didi.cn/wzTfoCa</t>
+  </si>
+  <si>
+    <t>安德医智</t>
+  </si>
+  <si>
+    <t>周三</t>
   </si>
   <si>
     <r>
@@ -311,29 +302,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>teams</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9:00 PM</t>
-    </r>
-  </si>
-  <si>
-    <t>视频面试，牛客网</t>
-  </si>
-  <si>
-    <t>https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y</t>
+      <t xml:space="preserve"> app面试</t>
+    </r>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d</t>
+  </si>
+  <si>
+    <t>会有算法题目</t>
+  </si>
+  <si>
+    <t>沐融</t>
   </si>
   <si>
     <r>
@@ -341,7 +333,62 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3:30 PM</t>
+    </r>
+  </si>
+  <si>
+    <t>待发邮箱 电话面试</t>
+  </si>
+  <si>
+    <t>小米-软件与体验部</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9:00 PM</t>
+    </r>
+  </si>
+  <si>
+    <t>视频面试，牛客网</t>
+  </si>
+  <si>
+    <t>https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,7 +400,6 @@
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -361,171 +407,74 @@
     </r>
   </si>
   <si>
-    <t>腾讯会议  会议号：971 613 3497</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9:00 PM</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>踏歌智行</t>
   </si>
   <si>
     <t>猎头推荐</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>踏歌智行</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯视频面试</t>
   </si>
   <si>
     <t>https://meeting.tencent.com/s/3Kzcto9IWSGb</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯视频面试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>朱峰：18686125895</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我感觉不好</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务不合适</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00 PM</t>
-  </si>
-  <si>
-    <t>https://z.didi.cn/wzTfoCa</t>
-  </si>
-  <si>
-    <t>周六</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>文思海辉</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>海淀区永泰庄北路38号院</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉钩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
+  </si>
+  <si>
+    <t>百度-工程效能部</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3:30 PM</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐融</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>待发邮箱 电话面试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>滴滴-小桔科技</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
+      <t>1</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频面试umeet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>视频面试umeet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9:00 PM</t>
+    </r>
+  </si>
+  <si>
+    <t>如流视频面试系统</t>
+  </si>
+  <si>
+    <t>https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc</t>
+  </si>
+  <si>
+    <t>文思海辉</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>现场</t>
+  </si>
+  <si>
+    <t>海淀区永泰庄北路38号院</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,14 +506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -576,50 +519,163 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +684,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -640,12 +702,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -653,16 +895,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -670,18 +1152,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,20 +1182,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -725,10 +1221,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,73 +1239,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1064,34 +1572,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="16.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.2222222222222" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="16.4444444444444" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="26.8888888888889" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6">
+    <row r="1" ht="15.6" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1116,26 +1625,26 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="27" customHeight="1">
+    <row r="2" ht="27" customHeight="1" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1154,18 +1663,18 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="26"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="55.2">
+    <row r="3" ht="55.2" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1190,12 +1699,12 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="28"/>
+      <c r="N3" s="36"/>
     </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
+    <row r="4" ht="30" customHeight="1" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -1214,16 +1723,16 @@
       <c r="H4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="29"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="28"/>
+      <c r="N4" s="36"/>
     </row>
-    <row r="5" spans="1:15" ht="46.8">
+    <row r="5" ht="46.8" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1238,28 +1747,28 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="37" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="N5" s="36"/>
     </row>
-    <row r="6" spans="1:15" ht="78">
+    <row r="6" ht="78" spans="1:14">
       <c r="A6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>31</v>
@@ -1272,227 +1781,227 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="31" t="s">
+      <c r="H6" s="18" t="s">
         <v>39</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="19" t="s">
+    <row r="7" ht="30" customHeight="1" spans="1:14">
+      <c r="A7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>43</v>
+      <c r="H7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="28"/>
+      <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:15" s="46" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="42">
+    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="23">
         <v>44308</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="45"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="1:15" ht="151.80000000000001">
+    <row r="9" ht="151.8" spans="1:14">
       <c r="A9" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D9" s="12">
         <v>44300</v>
       </c>
-      <c r="E9" s="20">
-        <v>0.54166666666666696</v>
+      <c r="E9" s="26">
+        <v>0.541666666666667</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>48</v>
+      <c r="H9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="28"/>
+      <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:15" ht="25.8" customHeight="1">
-      <c r="A10" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>69</v>
+    <row r="10" ht="25.8" customHeight="1" spans="1:14">
+      <c r="A10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="12">
-        <v>44300</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>78</v>
+        <v>44301</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="28"/>
+      <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:15" ht="41.4">
+    <row r="11" ht="41.4" spans="1:14">
       <c r="A11" s="9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" s="12">
         <v>44301</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>54</v>
+      <c r="E11" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>57</v>
+      <c r="H11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="28"/>
+      <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="27.6">
-      <c r="A12" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>60</v>
+    <row r="12" ht="27.6" spans="1:14">
+      <c r="A12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="29">
         <v>44302</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>64</v>
+      <c r="H12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="28"/>
+      <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="57.6">
+    <row r="13" s="2" customFormat="1" ht="57.6" spans="1:15">
       <c r="A13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="29">
         <v>44302</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>59</v>
+      <c r="E13" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>51</v>
+        <v>73</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -1501,41 +2010,41 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" ht="14.4">
-      <c r="A14" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="22">
+    <row r="14" ht="14.4" spans="1:13">
+      <c r="A14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="29">
         <v>44303</v>
       </c>
-      <c r="E14" s="48">
-        <v>0.45833333333333331</v>
+      <c r="E14" s="28">
+        <v>0.458333333333333</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>76</v>
+      <c r="H14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>78</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="14.4">
+    <row r="15" ht="14.4" spans="1:13">
       <c r="A15" s="9"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -1545,12 +2054,12 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="30"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -1560,44 +2069,44 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="21" spans="1:14" s="46" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="42">
+    <row r="21" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+      <c r="A21" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="23">
         <v>44308</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="45"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="41"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I13" r:id="rId4" location="/pc" xr:uid="{224F6423-92BB-4464-99C3-A10F85CE2A23}"/>
-    <hyperlink ref="I12" r:id="rId5" xr:uid="{B169F2F2-A443-49E0-9175-728F3C07961B}"/>
+    <hyperlink ref="I11" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
+    <hyperlink ref="I9" r:id="rId2" display="https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d"/>
+    <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
+    <hyperlink ref="I13" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
+    <hyperlink ref="I12" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9454B99-7102-42D5-AABC-065456755435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>公司</t>
   </si>
@@ -102,6 +108,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> 2021-</t>
@@ -111,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4-12</t>
@@ -143,6 +151,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>HR</t>
@@ -152,6 +161,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -161,6 +171,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>010-82343415</t>
@@ -195,6 +206,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> </t>
@@ -204,7 +216,7 @@
         <sz val="7"/>
         <color rgb="FF222222"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2021-04-13</t>
     </r>
@@ -215,6 +227,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -225,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -237,6 +251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -247,6 +262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -271,6 +287,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -281,6 +298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -302,6 +320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -312,6 +331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,6 +353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,6 +364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -361,6 +383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -371,6 +394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,6 +413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -400,6 +425,7 @@
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -411,9 +437,6 @@
   </si>
   <si>
     <t>猎头推荐</t>
-  </si>
-  <si>
-    <t>腾讯视频面试</t>
   </si>
   <si>
     <t>https://meeting.tencent.com/s/3Kzcto9IWSGb</t>
@@ -430,6 +453,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -439,6 +463,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9:00 PM</t>
@@ -461,20 +486,63 @@
   </si>
   <si>
     <t>海淀区永泰庄北路38号院</t>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3:00 PM</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oss</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>米纳移动</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话面试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯会议面试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,163 +587,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,194 +655,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -895,253 +664,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1182,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,21 +736,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1245,12 +772,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,62 +786,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1572,35 +1063,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="16.4444444444444" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="26.8888888888889" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.8888888888889" customWidth="1"/>
-    <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:14">
+    <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1625,26 +1115,26 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:14">
+    <row r="2" spans="1:15" ht="27" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1663,18 +1153,18 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="34"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="55.2" spans="1:14">
+    <row r="3" spans="1:15" ht="55.2">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1702,9 +1192,9 @@
       <c r="M3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="35"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:14">
+    <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -1730,9 +1220,9 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="36"/>
+      <c r="N4" s="35"/>
     </row>
-    <row r="5" ht="46.8" spans="1:14">
+    <row r="5" spans="1:15" ht="46.8">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1750,10 +1240,10 @@
       <c r="H5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="14"/>
@@ -1761,9 +1251,9 @@
       <c r="M5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="35"/>
     </row>
-    <row r="6" ht="78" spans="1:14">
+    <row r="6" spans="1:15" ht="78">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -1784,10 +1274,10 @@
       <c r="H6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="14"/>
@@ -1795,11 +1285,11 @@
       <c r="M6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:14">
+    <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>43</v>
       </c>
@@ -1820,7 +1310,7 @@
       <c r="H7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -1829,9 +1319,9 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="36"/>
+      <c r="N7" s="35"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
@@ -1848,16 +1338,16 @@
       <c r="H8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="39" t="s">
         <v>52</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="41"/>
+      <c r="N8" s="40"/>
     </row>
-    <row r="9" ht="151.8" spans="1:14">
+    <row r="9" spans="1:15" ht="151.80000000000001">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -1871,14 +1361,14 @@
         <v>44300</v>
       </c>
       <c r="E9" s="26">
-        <v>0.541666666666667</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="41" t="s">
         <v>56</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -1887,9 +1377,9 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="36"/>
+      <c r="N9" s="35"/>
     </row>
-    <row r="10" ht="25.8" customHeight="1" spans="1:14">
+    <row r="10" spans="1:15" ht="25.8" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
@@ -1910,14 +1400,14 @@
       <c r="H10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="36"/>
+      <c r="N10" s="35"/>
     </row>
-    <row r="11" ht="41.4" spans="1:14">
+    <row r="11" spans="1:15" ht="41.4">
       <c r="A11" s="9" t="s">
         <v>61</v>
       </c>
@@ -1936,7 +1426,7 @@
       <c r="H11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="41" t="s">
         <v>64</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -1945,9 +1435,9 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="36"/>
+      <c r="N11" s="35"/>
     </row>
-    <row r="12" ht="27.6" spans="1:14">
+    <row r="12" spans="1:15" ht="27.6">
       <c r="A12" s="19" t="s">
         <v>66</v>
       </c>
@@ -1965,23 +1455,23 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="J12" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="36"/>
+      <c r="N12" s="35"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="57.6" spans="1:15">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="57.6">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -1993,15 +1483,15 @@
         <v>44302</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>73</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>74</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -2010,36 +1500,36 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" ht="14.4" spans="1:13">
+    <row r="14" spans="1:15" ht="14.4">
       <c r="A14" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="29">
         <v>44303</v>
       </c>
       <c r="E14" s="28">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="43" t="s">
         <v>77</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>78</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" ht="14.4" spans="1:13">
+    <row r="15" spans="1:15" ht="14.4">
       <c r="A15" s="9"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2054,23 +1544,35 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="30"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+    <row r="16" spans="1:15">
+      <c r="A16" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="29">
+        <v>44305</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>79</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="21"/>
@@ -2088,25 +1590,25 @@
       <c r="H21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="39" t="s">
         <v>52</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="41"/>
+      <c r="N21" s="40"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
-    <hyperlink ref="I9" r:id="rId2" display="https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d"/>
-    <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
-    <hyperlink ref="I13" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
-    <hyperlink ref="I12" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -468,13 +468,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,18 +496,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -519,6 +507,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -528,7 +638,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,141 +651,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,187 +684,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,21 +869,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -926,6 +887,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -937,15 +907,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,6 +946,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -999,10 +975,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,137 +987,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1188,42 +1164,25 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1242,22 +1201,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1583,7 +1539,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1625,22 +1581,22 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1663,14 +1619,14 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="34"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1702,7 +1658,7 @@
       <c r="M3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:14">
       <c r="A4" s="9" t="s">
@@ -1730,7 +1686,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="36"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" ht="46.8" spans="1:14">
       <c r="A5" s="9" t="s">
@@ -1750,10 +1706,10 @@
       <c r="H5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="30" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="14"/>
@@ -1761,7 +1717,7 @@
       <c r="M5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" ht="78" spans="1:14">
       <c r="A6" s="9" t="s">
@@ -1781,13 +1737,13 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="30" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="14"/>
@@ -1795,12 +1751,12 @@
       <c r="M6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:14">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1817,10 +1773,10 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="31" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -1829,33 +1785,33 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="36"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>44308</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="41"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" ht="151.8" spans="1:14">
       <c r="A9" s="9" t="s">
@@ -1870,7 +1826,7 @@
       <c r="D9" s="12">
         <v>44300</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <v>0.541666666666667</v>
       </c>
       <c r="F9" s="14"/>
@@ -1878,7 +1834,7 @@
       <c r="H9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="34" t="s">
         <v>56</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -1887,35 +1843,35 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="36"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" ht="25.8" customHeight="1" spans="1:14">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="12">
         <v>44301</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="22" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="36"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" ht="41.4" spans="1:14">
       <c r="A11" s="9" t="s">
@@ -1936,7 +1892,7 @@
       <c r="H11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="35" t="s">
         <v>64</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -1945,19 +1901,19 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="36"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" ht="27.6" spans="1:14">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="23">
         <v>44302</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -1965,19 +1921,19 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="14" t="s">
         <v>70</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="36"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="57.6" spans="1:15">
       <c r="A13" s="9" t="s">
@@ -1989,7 +1945,7 @@
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="23">
         <v>44302</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -2000,7 +1956,7 @@
       <c r="H13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="36" t="s">
         <v>74</v>
       </c>
       <c r="J13" s="14"/>
@@ -2011,27 +1967,27 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" ht="14.4" spans="1:13">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="23">
         <v>44303</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="22">
         <v>0.458333333333333</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="15" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="14"/>
@@ -2055,7 +2011,7 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="30"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2070,36 +2026,36 @@
       <c r="M16" s="14"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <v>44308</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="41"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
+    <hyperlink ref="I11" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
     <hyperlink ref="I9" r:id="rId2" display="https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d"/>
     <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
     <hyperlink ref="I13" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>

--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF3DE0B-D2B6-4524-8616-2E7FDC08DC5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>公司</t>
   </si>
@@ -102,6 +108,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> 2021-</t>
@@ -111,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4-12</t>
@@ -143,6 +151,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>HR</t>
@@ -152,6 +161,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -161,6 +171,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>010-82343415</t>
@@ -195,6 +206,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> </t>
@@ -204,7 +216,7 @@
         <sz val="7"/>
         <color rgb="FF222222"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2021-04-13</t>
     </r>
@@ -215,6 +227,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -225,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -237,6 +251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -247,6 +262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -271,6 +287,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -281,6 +298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -302,6 +320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -312,6 +331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,6 +353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,6 +364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -361,6 +383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -371,6 +394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,6 +413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -400,6 +425,7 @@
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -414,9 +440,6 @@
   </si>
   <si>
     <t>腾讯视频面试</t>
-  </si>
-  <si>
-    <t>https://meeting.tencent.com/s/3Kzcto9IWSGb</t>
   </si>
   <si>
     <t>朱峰：18686125895</t>
@@ -430,6 +453,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -439,6 +463,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9:00 PM</t>
@@ -461,20 +486,91 @@
   </si>
   <si>
     <t>海淀区永泰庄北路38号院</t>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐融科技</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5:00 PM</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美团优选</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dpurl.cn/KuDpvGrz</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频 牛客网</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9:00 PM</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东 集团</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发面试邀请</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话 待发面试邀请</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meeting.tencent.com/s/3Kzcto9IWSGb</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00 PM</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>米纳移动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,17 +581,20 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -503,6 +602,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -511,153 +611,33 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,188 +662,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -871,253 +671,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1158,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,15 +735,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1201,76 +759,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1528,35 +1053,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="16.4444444444444" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="26.8888888888889" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.8888888888889" customWidth="1"/>
-    <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:14">
+    <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1581,26 +1105,26 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:14">
+    <row r="2" spans="1:15" ht="27" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1619,18 +1143,18 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="27"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="55.2" spans="1:14">
+    <row r="3" spans="1:15" ht="55.2">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1658,9 +1182,9 @@
       <c r="M3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:14">
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -1686,9 +1210,9 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" ht="46.8" spans="1:14">
+      <c r="N4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="46.8">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1706,10 +1230,10 @@
       <c r="H5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="14"/>
@@ -1717,9 +1241,9 @@
       <c r="M5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="29"/>
-    </row>
-    <row r="6" ht="78" spans="1:14">
+      <c r="N5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" ht="78">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -1740,10 +1264,10 @@
       <c r="H6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="29" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="14"/>
@@ -1751,11 +1275,11 @@
       <c r="M6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:14">
+    <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -1776,7 +1300,7 @@
       <c r="H7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="30" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -1785,9 +1309,9 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
@@ -1804,16 +1328,16 @@
       <c r="H8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="33"/>
-    </row>
-    <row r="9" ht="151.8" spans="1:14">
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="1:15" ht="151.80000000000001">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -1827,14 +1351,14 @@
         <v>44300</v>
       </c>
       <c r="E9" s="22">
-        <v>0.541666666666667</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>56</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -1843,9 +1367,9 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="29"/>
-    </row>
-    <row r="10" ht="25.8" customHeight="1" spans="1:14">
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" ht="25.8" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>58</v>
       </c>
@@ -1866,14 +1390,14 @@
       <c r="H10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="29"/>
-    </row>
-    <row r="11" ht="41.4" spans="1:14">
+      <c r="N10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" ht="41.4">
       <c r="A11" s="9" t="s">
         <v>61</v>
       </c>
@@ -1892,7 +1416,7 @@
       <c r="H11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="34" t="s">
         <v>64</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -1901,9 +1425,9 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" ht="27.6" spans="1:14">
+      <c r="N11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" ht="27.6">
       <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
@@ -1924,20 +1448,20 @@
       <c r="H12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="29"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="57.6" spans="1:15">
+      <c r="N12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="57.6">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -1949,15 +1473,15 @@
         <v>44302</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>74</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -1966,41 +1490,49 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" ht="14.4" spans="1:13">
+    <row r="14" spans="1:15" ht="14.4">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="23">
         <v>44303</v>
       </c>
       <c r="E14" s="22">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" ht="14.4" spans="1:13">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:15" ht="14.4">
+      <c r="A15" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="C15" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="23">
+        <v>44305</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -2010,22 +1542,69 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:15">
+      <c r="A16" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="23">
+        <v>44305</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+    <row r="17" spans="1:14">
+      <c r="A17" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="23">
+        <v>44305</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="39">
+        <v>44306</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>43</v>
       </c>
@@ -2044,25 +1623,26 @@
       <c r="H21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="33"/>
+      <c r="N21" s="32"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
-    <hyperlink ref="I9" r:id="rId2" display="https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d"/>
-    <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
-    <hyperlink ref="I13" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
-    <hyperlink ref="I12" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
+    <hyperlink ref="I11" r:id="rId1" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I18" r:id="rId6" xr:uid="{3F634334-9538-4D02-98FE-CC7CA6C6FE71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF3DE0B-D2B6-4524-8616-2E7FDC08DC5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>公司</t>
   </si>
@@ -108,7 +102,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> 2021-</t>
@@ -118,7 +111,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4-12</t>
@@ -129,6 +121,9 @@
   </si>
   <si>
     <t>北京市西城区德胜门外大街乙10号泰富大厦8层805室</t>
+  </si>
+  <si>
+    <t>没有面试</t>
   </si>
   <si>
     <t>北大医疗信息技术</t>
@@ -151,7 +146,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>HR</t>
@@ -161,7 +155,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -171,7 +164,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>010-82343415</t>
@@ -179,6 +171,9 @@
   </si>
   <si>
     <t>自我感觉不好</t>
+  </si>
+  <si>
+    <t>薪资太低</t>
   </si>
   <si>
     <t>海泰方圆科</t>
@@ -206,7 +201,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> </t>
@@ -216,7 +210,7 @@
         <sz val="7"/>
         <color rgb="FF222222"/>
         <rFont val="PingFangSC-Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2021-04-13</t>
     </r>
@@ -227,7 +221,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +231,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -251,7 +243,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -262,7 +253,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,7 +277,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -298,7 +287,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -320,7 +308,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -331,7 +318,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -345,7 +331,7 @@
     <t>会有算法题目</t>
   </si>
   <si>
-    <t>沐融</t>
+    <t>小米-软件与体验部</t>
   </si>
   <si>
     <r>
@@ -353,7 +339,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,18 +349,17 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3:30 PM</t>
-    </r>
-  </si>
-  <si>
-    <t>待发邮箱 电话面试</t>
-  </si>
-  <si>
-    <t>小米-软件与体验部</t>
+      <t>9:00 PM</t>
+    </r>
+  </si>
+  <si>
+    <t>视频面试，牛客网</t>
+  </si>
+  <si>
+    <t>https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y</t>
   </si>
   <si>
     <r>
@@ -383,37 +367,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9:00 PM</t>
-    </r>
-  </si>
-  <si>
-    <t>视频面试，牛客网</t>
-  </si>
-  <si>
-    <t>https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -425,7 +378,6 @@
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -440,6 +392,9 @@
   </si>
   <si>
     <t>腾讯视频面试</t>
+  </si>
+  <si>
+    <t>https://meeting.tencent.com/s/3Kzcto9IWSGb</t>
   </si>
   <si>
     <t>朱峰：18686125895</t>
@@ -453,7 +408,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,7 +417,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9:00 PM</t>
@@ -488,44 +441,26 @@
     <t>海淀区永泰庄北路38号院</t>
   </si>
   <si>
-    <t>周一</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>海淀区知春路量子银座11层</t>
+  </si>
+  <si>
+    <t>米纳移动</t>
+  </si>
+  <si>
+    <t>boss发了邀请</t>
   </si>
   <si>
     <t>沐融科技</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5:00 PM</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 美团优选</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://dpurl.cn/KuDpvGrz</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频 牛客网</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -533,44 +468,43 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9:00 PM</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+      <t>5:00 PM</t>
+    </r>
+  </si>
+  <si>
+    <t>电话 待发面试邀请</t>
   </si>
   <si>
     <t>京东 集团</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>待发面试邀请</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话 待发面试邀请</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://meeting.tencent.com/s/3Kzcto9IWSGb</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:00 PM</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>米纳移动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美团优选</t>
+  </si>
+  <si>
+    <t>视频 牛客网</t>
+  </si>
+  <si>
+    <t>http://dpurl.cn/KuDpvGrz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,20 +515,17 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -602,7 +533,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -611,33 +541,153 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,8 +712,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -671,14 +901,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -719,7 +1188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,12 +1204,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -759,43 +1234,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1053,34 +1561,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.2222222222222" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="16.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="26.8888888888889" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6">
+    <row r="1" ht="15.6" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1105,26 +1614,26 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="27" customHeight="1">
+    <row r="2" ht="27" customHeight="1" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1143,18 +1652,18 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="26"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="55.2">
+    <row r="3" ht="55.2" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1182,9 +1691,9 @@
       <c r="M3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="28"/>
+      <c r="N3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
+    <row r="4" ht="30" customHeight="1" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -1210,17 +1719,19 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="28"/>
+      <c r="N4" s="30" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="46.8">
+    <row r="5" ht="46.8" spans="1:14">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="16">
         <v>0.5625</v>
@@ -1228,33 +1739,35 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="31" t="s">
         <v>35</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="78">
+    <row r="6" ht="78" spans="1:14">
       <c r="A6" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="16">
         <v>0.625</v>
@@ -1262,177 +1775,181 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="29" t="s">
         <v>41</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
+    <row r="7" ht="30" customHeight="1" spans="1:14">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="28"/>
+      <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="20">
         <v>44308</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="32"/>
+      <c r="N8" s="34"/>
     </row>
-    <row r="9" spans="1:15" ht="151.80000000000001">
+    <row r="9" ht="151.8" spans="1:14">
       <c r="A9" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="12">
         <v>44300</v>
       </c>
       <c r="E9" s="22">
-        <v>0.54166666666666696</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="28"/>
+      <c r="N9" s="30"/>
     </row>
-    <row r="10" spans="1:15" ht="25.8" customHeight="1">
+    <row r="10" ht="41.4" spans="1:14">
       <c r="A10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="12">
         <v>44301</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>59</v>
+      <c r="E10" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="28"/>
+      <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="41.4">
+    <row r="11" ht="27.6" spans="1:14">
       <c r="A11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="C11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="12">
-        <v>44301</v>
+        <v>16</v>
+      </c>
+      <c r="D11" s="23">
+        <v>44302</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="28"/>
+      <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="1:15" ht="27.6">
+    <row r="12" s="2" customFormat="1" ht="57.6" spans="1:15">
       <c r="A12" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>16</v>
@@ -1441,125 +1958,126 @@
         <v>44302</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>69</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="28"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="57.6">
+    <row r="13" ht="14.4" spans="1:13">
       <c r="A13" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D13" s="23">
-        <v>44302</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>73</v>
+        <v>44303</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" ht="14.4">
+    <row r="14" ht="14.4" spans="1:13">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D14" s="23">
-        <v>44303</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>44305</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22">
+        <v>0.458333333333333</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="14.4">
+    <row r="15" ht="14.4" spans="1:13">
       <c r="A15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="23">
         <v>44305</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="37" t="s">
-        <v>79</v>
+    <row r="16" spans="1:13">
+      <c r="A16" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="36" t="s">
-        <v>78</v>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="23">
         <v>44305</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>80</v>
+      <c r="E16" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="38" t="s">
-        <v>87</v>
+      <c r="H16" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
@@ -1567,82 +2085,82 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>78</v>
+    <row r="17" spans="1:8">
+      <c r="A17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="23">
         <v>44305</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="38" t="s">
+      <c r="E17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="24" t="s">
         <v>86</v>
       </c>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="25">
+        <v>44306</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="39">
-        <v>44306</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="21" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A21" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" s="20">
         <v>44308</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="32"/>
+      <c r="N21" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I18" r:id="rId6" xr:uid="{3F634334-9538-4D02-98FE-CC7CA6C6FE71}"/>
+    <hyperlink ref="I10" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
+    <hyperlink ref="I9" r:id="rId2" display="https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d"/>
+    <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
+    <hyperlink ref="I12" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
+    <hyperlink ref="I11" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
+    <hyperlink ref="I18" r:id="rId6" display="http://dpurl.cn/KuDpvGrz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>公司</t>
   </si>
@@ -478,10 +478,16 @@
     <t>电话 待发面试邀请</t>
   </si>
   <si>
+    <t>爽约</t>
+  </si>
+  <si>
     <t>京东 集团</t>
   </si>
   <si>
-    <t>待发面试邀请</t>
+    <t>14:00 PM</t>
+  </si>
+  <si>
+    <t>电话面试  已加微信</t>
   </si>
   <si>
     <t xml:space="preserve"> 美团优选</t>
@@ -491,6 +497,9 @@
   </si>
   <si>
     <t>http://dpurl.cn/KuDpvGrz</t>
+  </si>
+  <si>
+    <t>自如</t>
   </si>
 </sst>
 </file>
@@ -498,11 +507,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -546,7 +555,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,16 +583,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,15 +652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,6 +668,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,61 +683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -673,14 +690,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
@@ -714,43 +723,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,127 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,41 +922,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,6 +959,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -999,16 +988,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,137 +1026,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1214,6 +1223,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,12 +1579,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1614,22 +1626,22 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1652,14 +1664,14 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="28"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1691,7 +1703,7 @@
       <c r="M3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="30"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:14">
       <c r="A4" s="9" t="s">
@@ -1719,7 +1731,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1741,10 +1753,10 @@
       <c r="H5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="32" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="14"/>
@@ -1752,7 +1764,7 @@
       <c r="M5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1777,10 +1789,10 @@
       <c r="H6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="32" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="14"/>
@@ -1788,7 +1800,7 @@
       <c r="M6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1813,7 +1825,7 @@
       <c r="H7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="33" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -1822,7 +1834,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="30"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A8" s="18"/>
@@ -1841,14 +1853,14 @@
       <c r="H8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="34" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="34"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" ht="151.8" spans="1:14">
       <c r="A9" s="9" t="s">
@@ -1871,7 +1883,7 @@
       <c r="H9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="36" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -1880,7 +1892,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="30"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" ht="41.4" spans="1:14">
       <c r="A10" s="9" t="s">
@@ -1901,7 +1913,7 @@
       <c r="H10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="37" t="s">
         <v>63</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -1910,7 +1922,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="30"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" ht="27.6" spans="1:14">
       <c r="A11" s="9" t="s">
@@ -1933,7 +1945,7 @@
       <c r="H11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="36" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -1942,7 +1954,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="30"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="57.6" spans="1:15">
       <c r="A12" s="9" t="s">
@@ -1965,7 +1977,7 @@
       <c r="H12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="38" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="14"/>
@@ -2060,7 +2072,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" ht="18" customHeight="1" spans="1:14">
       <c r="A16" s="24" t="s">
         <v>81</v>
       </c>
@@ -2084,71 +2096,135 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
+      <c r="N16" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" ht="19" customHeight="1" spans="1:13">
       <c r="A17" s="24" t="s">
-        <v>84</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D17" s="23">
-        <v>44305</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>61</v>
-      </c>
+        <v>44306</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="24" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="23">
         <v>44306</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="35" t="s">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="24" t="s">
         <v>88</v>
       </c>
+      <c r="C19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="25">
+        <v>44306</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="25">
+        <v>44307</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:9">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:9">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+      <c r="A24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D24" s="20">
         <v>44308</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
+      <c r="G24" s="21"/>
+      <c r="H24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="34"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2157,7 +2233,7 @@
     <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
     <hyperlink ref="I12" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
     <hyperlink ref="I11" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
-    <hyperlink ref="I18" r:id="rId6" display="http://dpurl.cn/KuDpvGrz"/>
+    <hyperlink ref="I19" r:id="rId6" display="http://dpurl.cn/KuDpvGrz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>公司</t>
   </si>
@@ -444,6 +444,9 @@
     <t>海淀区知春路量子银座11层</t>
   </si>
   <si>
+    <t>17K+1K 13薪资</t>
+  </si>
+  <si>
     <t>米纳移动</t>
   </si>
   <si>
@@ -501,6 +504,18 @@
   <si>
     <t>自如</t>
   </si>
+  <si>
+    <t>猫眼娱乐</t>
+  </si>
+  <si>
+    <t>现场面试</t>
+  </si>
+  <si>
+    <t>东城区 雍和航星园3号楼猫眼娱乐</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 联系人：付雅丽 18547116909 </t>
+  </si>
 </sst>
 </file>
 
@@ -508,10 +523,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -555,6 +570,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -562,7 +591,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,14 +605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,6 +614,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +683,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,29 +699,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +711,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,109 +732,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,67 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,17 +965,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +982,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,15 +1021,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1014,10 +1035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,140 +1047,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1169,13 +1191,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,6 +1241,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1228,10 +1263,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,6 +1297,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1579,603 +1620,607 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="16.4444444444444" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.4444444444444" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="16.4444444444444" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="26.8888888888889" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="26.8888888888889" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.1111111111111" customWidth="1"/>
     <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="15.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:14">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:14">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="55.2" spans="1:14">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>44298</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="16">
         <v>13261604970</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="31"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:14">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>0.75</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="31" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="46.8" spans="1:14">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>0.5625</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" ht="78" spans="1:14">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>0.625</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:14">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="31"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>44308</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="35"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" ht="151.8" spans="1:14">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>44300</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="23">
         <v>0.541666666666667</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="31"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" ht="41.4" spans="1:14">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>44301</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="31"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" ht="27.6" spans="1:14">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="24">
         <v>44302</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="31"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="57.6" spans="1:15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="24">
         <v>44302</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" ht="14.4" spans="1:13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="24">
         <v>44303</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" ht="14.4" spans="1:13">
-      <c r="A14" s="9" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+      <c r="A14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="27">
         <v>44305</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
         <v>0.458333333333333</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" ht="14.4" spans="1:13">
-      <c r="A15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="24">
         <v>44305</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:14">
-      <c r="A16" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>44305</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:13">
-      <c r="A17" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="24">
         <v>44306</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="24">
         <v>44306</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>87</v>
       </c>
+      <c r="H18" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="31">
         <v>44306</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="36" t="s">
+      <c r="H19" s="15" t="s">
         <v>90</v>
       </c>
+      <c r="I19" s="43" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="31">
         <v>44307</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="32">
         <v>0.458333333333333</v>
       </c>
       <c r="H21" t="s">
@@ -2183,48 +2228,184 @@
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:9">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="21">
         <v>44308</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21" t="s">
+      <c r="G24" s="22"/>
+      <c r="H24" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="35"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="14"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="14"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" ht="27.6" spans="1:10">
+      <c r="A27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="31">
+        <v>44310</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="14"/>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="14"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="14"/>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="14"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="14"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="14"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="14"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="14"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="14"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="14"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="14"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="14"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="14"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="14"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="14"/>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="14"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="14"/>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="14"/>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" s="14"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="14"/>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="14"/>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78774692-DB80-4315-83F6-DFC6375D5436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="4956" yWindow="0" windowWidth="17280" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>公司</t>
   </si>
@@ -102,6 +108,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> 2021-</t>
@@ -111,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4-12</t>
@@ -146,6 +154,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>HR</t>
@@ -155,6 +164,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -164,6 +174,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>010-82343415</t>
@@ -201,6 +212,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> </t>
@@ -210,7 +222,7 @@
         <sz val="7"/>
         <color rgb="FF222222"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2021-04-13</t>
     </r>
@@ -221,6 +233,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,6 +244,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -243,6 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -253,6 +268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,6 +293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,6 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -308,6 +326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -318,6 +337,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -339,6 +359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -349,6 +370,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -367,6 +389,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,6 +401,7 @@
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,6 +432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -417,6 +442,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9:00 PM</t>
@@ -461,6 +487,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -471,6 +498,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -515,20 +543,21 @@
   </si>
   <si>
     <t xml:space="preserve"> 联系人：付雅丽 18547116909 </t>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话邀请，腾讯会议，暂未发会议号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,149 +598,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="PingFangSC-Regular"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="PingFangSC-Regular"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,7 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,188 +672,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -931,253 +681,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1219,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,7 +746,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1250,7 +761,7 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1260,7 +771,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1284,15 +795,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,62 +812,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1614,36 +1086,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.4444444444444" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="16.4444444444444" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="26.8888888888889" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
-    <col min="14" max="14" width="15.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:14">
+    <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:14">
+    <row r="2" spans="1:15" ht="27" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1717,7 +1188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="55.2" spans="1:14">
+    <row r="3" spans="1:15" ht="55.2">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1747,7 +1218,7 @@
       </c>
       <c r="N3" s="38"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:14">
+    <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -1777,7 +1248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="46.8" spans="1:14">
+    <row r="5" spans="1:15" ht="46.8">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -1810,7 +1281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" ht="78" spans="1:14">
+    <row r="6" spans="1:15" ht="78">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -1846,7 +1317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:14">
+    <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1878,7 +1349,7 @@
       <c r="M7" s="15"/>
       <c r="N7" s="38"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -1904,7 +1375,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="42"/>
     </row>
-    <row r="9" ht="151.8" spans="1:14">
+    <row r="9" spans="1:15" ht="151.80000000000001">
       <c r="A9" s="10" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +1389,7 @@
         <v>44300</v>
       </c>
       <c r="E9" s="23">
-        <v>0.541666666666667</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1936,7 +1407,7 @@
       <c r="M9" s="15"/>
       <c r="N9" s="38"/>
     </row>
-    <row r="10" ht="41.4" spans="1:14">
+    <row r="10" spans="1:15" ht="41.4">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -1966,7 +1437,7 @@
       <c r="M10" s="15"/>
       <c r="N10" s="38"/>
     </row>
-    <row r="11" ht="27.6" spans="1:14">
+    <row r="11" spans="1:15" ht="27.6">
       <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
@@ -1998,7 +1469,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="38"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="57.6" spans="1:15">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="57.6">
       <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
@@ -2029,7 +1500,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" ht="14.4" spans="1:13">
+    <row r="13" spans="1:15" ht="14.4">
       <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
@@ -2043,7 +1514,7 @@
         <v>44303</v>
       </c>
       <c r="E13" s="23">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2058,7 +1529,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+    <row r="14" spans="1:15" s="3" customFormat="1" ht="19.05" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>65</v>
       </c>
@@ -2073,7 +1544,7 @@
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29" t="s">
@@ -2090,7 +1561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="1:13">
+    <row r="15" spans="1:15" ht="14.4">
       <c r="A15" s="10" t="s">
         <v>80</v>
       </c>
@@ -2117,7 +1588,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:14">
+    <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="30" t="s">
         <v>82</v>
       </c>
@@ -2145,7 +1616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" ht="19" customHeight="1" spans="1:13">
+    <row r="17" spans="1:14" ht="19.05" customHeight="1">
       <c r="A17" s="30" t="s">
         <v>86</v>
       </c>
@@ -2157,7 +1628,7 @@
         <v>44306</v>
       </c>
       <c r="E17" s="23">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -2170,7 +1641,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:14">
       <c r="A18" s="30" t="s">
         <v>86</v>
       </c>
@@ -2187,7 +1658,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:14">
       <c r="A19" s="30" t="s">
         <v>89</v>
       </c>
@@ -2207,7 +1678,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
@@ -2221,29 +1692,34 @@
         <v>44307</v>
       </c>
       <c r="E21" s="32">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="H21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:9">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+    <row r="22" spans="1:14">
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4">
+        <v>58</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="31">
+        <v>44308</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>45</v>
       </c>
@@ -2271,15 +1747,15 @@
       <c r="M24" s="22"/>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="1:14">
       <c r="C25" s="14"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="1:14">
       <c r="C26" s="14"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" ht="27.6" spans="1:10">
+    <row r="27" spans="1:14" ht="27.6">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
@@ -2302,23 +1778,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="1:14">
       <c r="C28" s="14"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="1:14">
       <c r="C29" s="14"/>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="1:14">
       <c r="C30" s="14"/>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="3:6">
+    <row r="31" spans="1:14">
       <c r="C31" s="14"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="3:6">
+    <row r="32" spans="1:14">
       <c r="C32" s="14"/>
       <c r="F32" s="23"/>
     </row>
@@ -2408,16 +1884,16 @@
       <c r="C55" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
-    <hyperlink ref="I9" r:id="rId2" display="https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d"/>
-    <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
-    <hyperlink ref="I12" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
-    <hyperlink ref="I11" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
-    <hyperlink ref="I19" r:id="rId6" display="http://dpurl.cn/KuDpvGrz"/>
+    <hyperlink ref="I10" r:id="rId1" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I12" r:id="rId4" location="/pc" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78774692-DB80-4315-83F6-DFC6375D5436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4956" yWindow="0" windowWidth="17280" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <t>公司</t>
   </si>
@@ -108,7 +102,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> 2021-</t>
@@ -118,7 +111,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4-12</t>
@@ -154,7 +146,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>HR</t>
@@ -164,7 +155,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -174,7 +164,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>010-82343415</t>
@@ -212,7 +201,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> </t>
@@ -222,7 +210,7 @@
         <sz val="7"/>
         <color rgb="FF222222"/>
         <rFont val="PingFangSC-Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2021-04-13</t>
     </r>
@@ -233,7 +221,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -244,7 +231,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,7 +243,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -268,7 +253,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,7 +277,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -304,7 +287,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,7 +308,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -337,7 +318,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -359,7 +339,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -370,7 +349,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,7 +367,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -401,7 +378,6 @@
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -432,7 +408,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -442,7 +417,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9:00 PM</t>
@@ -487,7 +461,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -498,7 +471,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,6 +505,15 @@
     <t>自如</t>
   </si>
   <si>
+    <t>电话邀请，腾讯会议，暂未发会议号</t>
+  </si>
+  <si>
+    <t>传智教育</t>
+  </si>
+  <si>
+    <t>电话面试，时间待定</t>
+  </si>
+  <si>
     <t>猫眼娱乐</t>
   </si>
   <si>
@@ -543,21 +524,20 @@
   </si>
   <si>
     <t xml:space="preserve"> 联系人：付雅丽 18547116909 </t>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话邀请，腾讯会议，暂未发会议号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +560,13 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -598,50 +585,168 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,7 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,8 +777,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -681,14 +972,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -730,7 +1260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,7 +1276,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -761,7 +1291,7 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -771,12 +1301,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -795,15 +1326,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,23 +1343,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1086,35 +1656,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.4444444444444" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="16.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="26.8888888888889" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="15.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6">
+    <row r="1" ht="15.6" spans="1:14">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1139,26 +1710,26 @@
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="27" customHeight="1">
+    <row r="2" ht="27" customHeight="1" spans="1:14">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1177,18 +1748,18 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="36"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="55.2">
+    <row r="3" ht="55.2" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1216,9 +1787,9 @@
       <c r="M3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:14">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -1244,11 +1815,11 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="46.8">
+    <row r="5" ht="46.8" spans="1:14">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -1266,10 +1837,10 @@
       <c r="H5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="40" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="15"/>
@@ -1277,11 +1848,11 @@
       <c r="M5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="78">
+    <row r="6" ht="78" spans="1:14">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -1302,10 +1873,10 @@
       <c r="H6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="40" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="15"/>
@@ -1313,11 +1884,11 @@
       <c r="M6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
+    <row r="7" ht="30" customHeight="1" spans="1:14">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1338,7 +1909,7 @@
       <c r="H7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="41" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1347,9 +1918,9 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="N7" s="39"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -1366,16 +1937,16 @@
       <c r="H8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="42" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="1:15" ht="151.80000000000001">
+      <c r="N8" s="43"/>
+    </row>
+    <row r="9" ht="151.8" spans="1:14">
       <c r="A9" s="10" t="s">
         <v>55</v>
       </c>
@@ -1389,14 +1960,14 @@
         <v>44300</v>
       </c>
       <c r="E9" s="23">
-        <v>0.54166666666666696</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="44" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -1405,9 +1976,9 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="38"/>
-    </row>
-    <row r="10" spans="1:15" ht="41.4">
+      <c r="N9" s="39"/>
+    </row>
+    <row r="10" ht="41.4" spans="1:14">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -1426,7 +1997,7 @@
       <c r="H10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="45" t="s">
         <v>63</v>
       </c>
       <c r="J10" s="15" t="s">
@@ -1435,9 +2006,9 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="38"/>
-    </row>
-    <row r="11" spans="1:15" ht="27.6">
+      <c r="N10" s="39"/>
+    </row>
+    <row r="11" ht="27.6" spans="1:14">
       <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
@@ -1458,7 +2029,7 @@
       <c r="H11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="44" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="15" t="s">
@@ -1467,9 +2038,9 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="38"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="57.6">
+      <c r="N11" s="39"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="57.6" spans="1:15">
       <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
@@ -1490,7 +2061,7 @@
       <c r="H12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="46" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="15"/>
@@ -1500,7 +2071,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="14.4">
+    <row r="13" ht="14.4" spans="1:13">
       <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
@@ -1514,7 +2085,7 @@
         <v>44303</v>
       </c>
       <c r="E13" s="23">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -1529,7 +2100,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" ht="19.05" customHeight="1">
+    <row r="14" s="3" customFormat="1" ht="19.05" customHeight="1" spans="1:14">
       <c r="A14" s="25" t="s">
         <v>65</v>
       </c>
@@ -1544,13 +2115,13 @@
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="47" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="29"/>
@@ -1561,7 +2132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.4">
+    <row r="15" ht="14.4" spans="1:13">
       <c r="A15" s="10" t="s">
         <v>80</v>
       </c>
@@ -1588,7 +2159,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    <row r="16" ht="18" customHeight="1" spans="1:14">
       <c r="A16" s="30" t="s">
         <v>82</v>
       </c>
@@ -1616,7 +2187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19.05" customHeight="1">
+    <row r="17" ht="19.05" customHeight="1" spans="1:13">
       <c r="A17" s="30" t="s">
         <v>86</v>
       </c>
@@ -1628,7 +2199,7 @@
         <v>44306</v>
       </c>
       <c r="E17" s="23">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -1641,7 +2212,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:8">
       <c r="A18" s="30" t="s">
         <v>86</v>
       </c>
@@ -1658,7 +2229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:9">
       <c r="A19" s="30" t="s">
         <v>89</v>
       </c>
@@ -1674,11 +2245,11 @@
       <c r="H19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
@@ -1692,34 +2263,34 @@
         <v>44307</v>
       </c>
       <c r="E21" s="32">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="4:5">
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>58</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>97</v>
+      <c r="C23" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="D23" s="31">
         <v>44308</v>
       </c>
       <c r="E23" s="32">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1731,33 +2302,41 @@
         <v>44308</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="20" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="42" t="s">
         <v>54</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="42"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="N24" s="43"/>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="14"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:14">
-      <c r="C26" s="14"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:14" ht="27.6">
+      <c r="H26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" ht="27.6" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>75</v>
@@ -1769,32 +2348,32 @@
         <v>0.4375</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="14"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="3:6">
       <c r="C29" s="14"/>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="3:6">
       <c r="C30" s="14"/>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="3:6">
       <c r="C31" s="14"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="3:6">
       <c r="C32" s="14"/>
       <c r="F32" s="23"/>
     </row>
@@ -1884,16 +2463,16 @@
       <c r="C55" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I12" r:id="rId4" location="/pc" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I10" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
+    <hyperlink ref="I9" r:id="rId2" display="https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d"/>
+    <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
+    <hyperlink ref="I12" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
+    <hyperlink ref="I11" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
+    <hyperlink ref="I19" r:id="rId6" display="http://dpurl.cn/KuDpvGrz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>公司</t>
   </si>
@@ -508,6 +508,9 @@
     <t>电话邀请，腾讯会议，暂未发会议号</t>
   </si>
   <si>
+    <t>确认二面</t>
+  </si>
+  <si>
     <t>传智教育</t>
   </si>
   <si>
@@ -524,6 +527,24 @@
   </si>
   <si>
     <t xml:space="preserve"> 联系人：付雅丽 18547116909 </t>
+  </si>
+  <si>
+    <t>等待HR反馈</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>腾讯会议</t>
+  </si>
+  <si>
+    <t>485 661 373</t>
+  </si>
+  <si>
+    <t>可能会问项目中的问题，遇到难点解释</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系人：孙景超  15910720291 </t>
   </si>
 </sst>
 </file>
@@ -531,11 +552,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -585,8 +606,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,30 +658,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,28 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -676,15 +706,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,17 +721,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,61 +788,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,133 +932,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,6 +991,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -990,6 +1026,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -997,17 +1044,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,24 +1064,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,11 +1085,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,145 +1097,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1304,9 +1325,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1341,6 +1359,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1665,9 +1686,9 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1681,6 +1702,7 @@
     <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="26.8888888888889" style="6" customWidth="1"/>
     <col min="10" max="10" width="28.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="12.7777777777778" customWidth="1"/>
     <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
     <col min="14" max="14" width="15.1111111111111" customWidth="1"/>
   </cols>
@@ -1710,22 +1732,22 @@
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1748,14 +1770,14 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="37"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1787,7 +1809,7 @@
       <c r="M3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:14">
       <c r="A4" s="10" t="s">
@@ -1815,7 +1837,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1837,10 +1859,10 @@
       <c r="H5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="15"/>
@@ -1848,7 +1870,7 @@
       <c r="M5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="38" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1873,10 +1895,10 @@
       <c r="H6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="39" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="15"/>
@@ -1884,7 +1906,7 @@
       <c r="M6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1909,7 +1931,7 @@
       <c r="H7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1918,7 +1940,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="39"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A8" s="19"/>
@@ -1937,14 +1959,14 @@
       <c r="H8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="41" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" ht="151.8" spans="1:14">
       <c r="A9" s="10" t="s">
@@ -1967,7 +1989,7 @@
       <c r="H9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="43" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -1976,7 +1998,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="39"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" ht="41.4" spans="1:14">
       <c r="A10" s="10" t="s">
@@ -1997,7 +2019,7 @@
       <c r="H10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="44" t="s">
         <v>63</v>
       </c>
       <c r="J10" s="15" t="s">
@@ -2006,7 +2028,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="39"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" ht="27.6" spans="1:14">
       <c r="A11" s="10" t="s">
@@ -2029,7 +2051,7 @@
       <c r="H11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="43" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="15" t="s">
@@ -2038,7 +2060,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="57.6" spans="1:15">
       <c r="A12" s="10" t="s">
@@ -2061,7 +2083,7 @@
       <c r="H12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="15"/>
@@ -2121,7 +2143,7 @@
       <c r="H14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="46" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="29"/>
@@ -2245,7 +2267,7 @@
       <c r="H19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="43" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2273,11 +2295,11 @@
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23" s="4">
         <v>58</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="31">
@@ -2286,8 +2308,11 @@
       <c r="E23" s="32">
         <v>0.458333333333333</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="15" t="s">
         <v>93</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
@@ -2309,14 +2334,14 @@
       <c r="H24" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="41" t="s">
         <v>54</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="43"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="14"/>
@@ -2324,19 +2349,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="23"/>
       <c r="H26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" ht="27.6" spans="1:10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" ht="27.6" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>75</v>
@@ -2348,22 +2373,47 @@
         <v>0.4375</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="14"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="14"/>
-      <c r="F29" s="23"/>
+    <row r="29" ht="41.4" spans="1:11">
+      <c r="A29" s="4">
+        <v>58</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="31">
+        <v>44311</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="14"/>
@@ -2470,6 +2520,7 @@
     <hyperlink ref="I12" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
     <hyperlink ref="I11" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
     <hyperlink ref="I19" r:id="rId6" display="http://dpurl.cn/KuDpvGrz"/>
+    <hyperlink ref="I24" r:id="rId7" display="https://z.didi.cn/wzTfoCa"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D572E4B3-6F31-4CFD-80E7-CC94FDC00154}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>公司</t>
   </si>
@@ -102,6 +108,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> 2021-</t>
@@ -111,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4-12</t>
@@ -146,6 +154,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>HR</t>
@@ -155,6 +164,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -164,6 +174,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>010-82343415</t>
@@ -201,6 +212,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t> </t>
@@ -210,7 +222,7 @@
         <sz val="7"/>
         <color rgb="FF222222"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2021-04-13</t>
     </r>
@@ -221,6 +233,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,6 +244,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -243,6 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -253,6 +268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,6 +293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,6 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -308,6 +326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -318,6 +337,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -339,6 +359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -349,6 +370,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -367,6 +389,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,6 +401,7 @@
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,6 +432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -417,6 +442,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9:00 PM</t>
@@ -461,6 +487,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -471,6 +498,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -535,30 +563,57 @@
     <t>周日</t>
   </si>
   <si>
+    <t>可能会问项目中的问题，遇到难点解释</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系人：孙景超  15910720291 </t>
+  </si>
+  <si>
+    <t>485 661 373</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 孙景超  15910720291</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00 PM</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meeting.58.com/meeting/r35391146975633408</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>腾讯会议</t>
-  </si>
-  <si>
-    <t>485 661 373</t>
-  </si>
-  <si>
-    <t>可能会问项目中的问题，遇到难点解释</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联系人：孙景超  15910720291 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>天融信</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖芳华 18333327630</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区西北旺东路10号院西区11号楼东侧 天融信大厦</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,168 +661,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="PingFangSC-Regular"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="PingFangSC-Regular"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,7 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,194 +735,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -993,253 +744,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1281,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,7 +809,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1312,7 +824,7 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1322,7 +834,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1344,15 +856,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,62 +876,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1677,37 +1152,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.4444444444444" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="16.4444444444444" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="51.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="26.8888888888889" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="12.7777777777778" customWidth="1"/>
-    <col min="13" max="13" width="19.2222222222222" customWidth="1"/>
-    <col min="14" max="14" width="15.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:14">
+    <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:14">
+    <row r="2" spans="1:15" ht="27" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="55.2" spans="1:14">
+    <row r="3" spans="1:15" ht="55.2">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1811,7 +1285,7 @@
       </c>
       <c r="N3" s="38"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:14">
+    <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -1841,7 +1315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="46.8" spans="1:14">
+    <row r="5" spans="1:15" ht="46.8">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -1874,7 +1348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" ht="78" spans="1:14">
+    <row r="6" spans="1:15" ht="78">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -1910,7 +1384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:14">
+    <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1942,7 +1416,7 @@
       <c r="M7" s="15"/>
       <c r="N7" s="38"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -1968,7 +1442,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="42"/>
     </row>
-    <row r="9" ht="151.8" spans="1:14">
+    <row r="9" spans="1:15" ht="151.80000000000001">
       <c r="A9" s="10" t="s">
         <v>55</v>
       </c>
@@ -1982,7 +1456,7 @@
         <v>44300</v>
       </c>
       <c r="E9" s="23">
-        <v>0.541666666666667</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -2000,7 +1474,7 @@
       <c r="M9" s="15"/>
       <c r="N9" s="38"/>
     </row>
-    <row r="10" ht="41.4" spans="1:14">
+    <row r="10" spans="1:15" ht="41.4">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -2030,7 +1504,7 @@
       <c r="M10" s="15"/>
       <c r="N10" s="38"/>
     </row>
-    <row r="11" ht="27.6" spans="1:14">
+    <row r="11" spans="1:15" ht="27.6">
       <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
@@ -2062,7 +1536,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="38"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="57.6" spans="1:15">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="57.6">
       <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
@@ -2093,7 +1567,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" ht="14.4" spans="1:13">
+    <row r="13" spans="1:15" ht="14.4">
       <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
@@ -2107,7 +1581,7 @@
         <v>44303</v>
       </c>
       <c r="E13" s="23">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2122,7 +1596,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="19.05" customHeight="1" spans="1:14">
+    <row r="14" spans="1:15" s="3" customFormat="1" ht="19.05" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>65</v>
       </c>
@@ -2137,7 +1611,7 @@
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29" t="s">
@@ -2154,7 +1628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="1:13">
+    <row r="15" spans="1:15" ht="14.4">
       <c r="A15" s="10" t="s">
         <v>80</v>
       </c>
@@ -2181,7 +1655,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:14">
+    <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="30" t="s">
         <v>82</v>
       </c>
@@ -2209,7 +1683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" ht="19.05" customHeight="1" spans="1:13">
+    <row r="17" spans="1:14" ht="19.05" customHeight="1">
       <c r="A17" s="30" t="s">
         <v>86</v>
       </c>
@@ -2221,7 +1695,7 @@
         <v>44306</v>
       </c>
       <c r="E17" s="23">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -2234,7 +1708,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:14">
       <c r="A18" s="30" t="s">
         <v>86</v>
       </c>
@@ -2251,7 +1725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:14">
       <c r="A19" s="30" t="s">
         <v>89</v>
       </c>
@@ -2271,7 +1745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
@@ -2285,17 +1759,17 @@
         <v>44307</v>
       </c>
       <c r="E21" s="32">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="H21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="1:14">
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="4">
         <v>58</v>
       </c>
@@ -2306,7 +1780,7 @@
         <v>44308</v>
       </c>
       <c r="E23" s="32">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>93</v>
@@ -2315,7 +1789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>45</v>
       </c>
@@ -2343,11 +1817,11 @@
       <c r="M24" s="22"/>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="1:14">
       <c r="C25" s="14"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
         <v>95</v>
       </c>
@@ -2359,7 +1833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" ht="27.6" spans="1:13">
+    <row r="27" spans="1:14" ht="27.6">
       <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
@@ -2385,11 +1859,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="1:14">
       <c r="C28" s="14"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" ht="41.4" spans="1:11">
+    <row r="29" spans="1:14" ht="41.4">
       <c r="A29" s="4">
         <v>58</v>
       </c>
@@ -2400,30 +1874,65 @@
         <v>44311</v>
       </c>
       <c r="F29" s="23">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="H29" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="K29" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K29" s="47" t="s">
+    </row>
+    <row r="30" spans="1:14" ht="27.6">
+      <c r="C30" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="31">
+        <v>44312</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="14"/>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="C31" s="14"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="3:6">
+    <row r="31" spans="1:14" ht="41.4">
+      <c r="A31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="31">
+        <v>44312</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="C32" s="14"/>
       <c r="F32" s="23"/>
     </row>
@@ -2513,17 +2022,18 @@
       <c r="C55" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1" display="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y"/>
-    <hyperlink ref="I9" r:id="rId2" display="https://teams.microsoft.com/l/meetup-join/19%3ameeting_YzQ0NmU2MDQtOWE0Ny00ODEyLWFjYzYtM2ZjZjZhODk0OGVm%40thread.v2/0?context=%7b%22Tid%22%3a%22c5e052f6-b3d7-4905-bc83-6df7c2fb7edd%22%2c%22Oid%22%3a%220ef17ebb-485f-4b8e-b191-fd9dc76304c4%22%7d"/>
-    <hyperlink ref="I7" r:id="rId3" display="https://z.didi.cn/sIAi3SF"/>
-    <hyperlink ref="I12" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
-    <hyperlink ref="I11" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
-    <hyperlink ref="I19" r:id="rId6" display="http://dpurl.cn/KuDpvGrz"/>
-    <hyperlink ref="I24" r:id="rId7" display="https://z.didi.cn/wzTfoCa"/>
+    <hyperlink ref="I10" r:id="rId1" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I12" r:id="rId4" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I30" r:id="rId8" xr:uid="{A631D7FE-CF3C-42B8-B1A6-FE00D74D3951}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D572E4B3-6F31-4CFD-80E7-CC94FDC00154}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE8CD6E-548B-4562-8C8B-EFA02962AD4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
   <si>
     <t>公司</t>
   </si>
@@ -606,6 +606,10 @@
   </si>
   <si>
     <t>北京市海淀区西北旺东路10号院西区11号楼东侧 天融信大厦</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -881,6 +885,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1162,7 +1169,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1913,11 +1920,11 @@
       <c r="A31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>107</v>
+      <c r="C31" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D31" s="31">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="F31" s="23">
         <v>0.41666666666666669</v>

--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>公司</t>
   </si>
@@ -525,19 +525,25 @@
   <si>
     <t xml:space="preserve"> 联系人：付雅丽 18547116909 </t>
   </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>可能会问项目中的问题，遇到难点解释</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,13 +568,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -586,7 +585,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,30 +643,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,28 +655,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,16 +682,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,6 +698,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,39 +720,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,25 +759,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,157 +837,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,6 +952,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,39 +1004,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1056,6 +1015,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,10 +1044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,137 +1056,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1304,10 +1272,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1326,15 +1290,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,9 +1629,9 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1710,22 +1674,22 @@
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="34" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1748,14 +1712,14 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="37"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1787,7 +1751,7 @@
       <c r="M3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:14">
       <c r="A4" s="10" t="s">
@@ -1815,7 +1779,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="37" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1837,10 +1801,10 @@
       <c r="H5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="38" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="15"/>
@@ -1848,7 +1812,7 @@
       <c r="M5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1873,10 +1837,10 @@
       <c r="H6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="38" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="15"/>
@@ -1884,7 +1848,7 @@
       <c r="M6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1909,7 +1873,7 @@
       <c r="H7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="39" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1918,7 +1882,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="39"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A8" s="19"/>
@@ -1937,14 +1901,14 @@
       <c r="H8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="40" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" ht="151.8" spans="1:14">
       <c r="A9" s="10" t="s">
@@ -1967,7 +1931,7 @@
       <c r="H9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="42" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -1976,7 +1940,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="39"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" ht="41.4" spans="1:14">
       <c r="A10" s="10" t="s">
@@ -1997,7 +1961,7 @@
       <c r="H10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="43" t="s">
         <v>63</v>
       </c>
       <c r="J10" s="15" t="s">
@@ -2006,7 +1970,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="39"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" ht="27.6" spans="1:14">
       <c r="A11" s="10" t="s">
@@ -2029,7 +1993,7 @@
       <c r="H11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="42" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="15" t="s">
@@ -2038,7 +2002,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="57.6" spans="1:15">
       <c r="A12" s="10" t="s">
@@ -2061,7 +2025,7 @@
       <c r="H12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="44" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="15"/>
@@ -2121,7 +2085,7 @@
       <c r="H14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="45" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="29"/>
@@ -2245,7 +2209,7 @@
       <c r="H19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="42" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2277,7 +2241,7 @@
       <c r="A23" s="4">
         <v>58</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="31">
@@ -2286,7 +2250,7 @@
       <c r="E23" s="32">
         <v>0.458333333333333</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2309,14 +2273,14 @@
       <c r="H24" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="40" t="s">
         <v>54</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="43"/>
+      <c r="N24" s="41"/>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="14"/>
@@ -2361,9 +2325,25 @@
       <c r="C28" s="14"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="14"/>
-      <c r="F29" s="23"/>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4">
+        <v>58</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="31">
+        <v>44311</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="14"/>
@@ -2470,6 +2450,7 @@
     <hyperlink ref="I12" r:id="rId4" display="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc" tooltip="https://infoflow.baidu.com/voip/api/meeting/middle/index.html?id=d21ff8a3802ae498ad409fd74933d370#/pc"/>
     <hyperlink ref="I11" r:id="rId5" display="https://meeting.tencent.com/s/3Kzcto9IWSGb"/>
     <hyperlink ref="I19" r:id="rId6" display="http://dpurl.cn/KuDpvGrz"/>
+    <hyperlink ref="I24" r:id="rId7" display="https://z.didi.cn/wzTfoCa"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE8CD6E-548B-4562-8C8B-EFA02962AD4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5610F4F-1CFA-4105-A5D8-80CC1131E1BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
   <si>
     <t>公司</t>
   </si>
@@ -570,54 +570,66 @@
   </si>
   <si>
     <t>485 661 373</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 孙景超  15910720291</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>周一</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>19:00 PM</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>https://meeting.58.com/meeting/r35391146975633408</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>腾讯会议</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>天融信</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>现场</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>祖芳华 18333327630</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>北京市海淀区西北旺东路10号院西区11号楼东侧 天融信大厦</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>周二</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能链集团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯会议</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,56 +640,8 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="PingFangSC-Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -691,6 +655,38 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="PingFangSC-Regular"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -755,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -880,13 +876,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1167,9 +1169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1940,8 +1942,21 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="C32" s="14"/>
-      <c r="F32" s="23"/>
+      <c r="A32" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="31">
+        <v>44313</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="14"/>
@@ -2029,7 +2044,7 @@
       <c r="C55" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I10" r:id="rId1" tooltip="https://interview.nowcoder.com/interview/14372487/interviewee?code=UrM21a4y" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt\Downloads\Java--master\Java--master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66911CD-3A94-4236-AD70-F7A2E1D0B9B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1AD79E-2B72-43B3-9D43-92AA87A83484}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1584" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="128">
   <si>
     <t>公司</t>
   </si>
@@ -631,7 +631,73 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>能链集团</t>
+    <t>美团</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> dpurl.cn/DmNzoGuz</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李睿璇 18580436379</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9:00 PM</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端高级/资深工程师（云盘/协作文档）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4:00 PM</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://z.didi.cn/44iA2CO</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -905,6 +971,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,11 +1251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N32"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1882,85 +1951,109 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="53" t="s">
+      <c r="C32" s="7"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="11">
+        <v>44322</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="11">
-        <v>44313</v>
-      </c>
-      <c r="F32" s="12">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="7"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="7"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="3:6">
+      <c r="C34" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="11">
+        <v>44323</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="C35" s="7"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="1:11">
       <c r="C36" s="7"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="1:11">
       <c r="C37" s="7"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="1:11">
       <c r="C38" s="7"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="1:11">
       <c r="C39" s="7"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="1:11">
       <c r="C40" s="7"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="3:6">
+    <row r="41" spans="1:11">
       <c r="C41" s="7"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="3:6">
+    <row r="42" spans="1:11">
       <c r="C42" s="7"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="3:6">
+    <row r="43" spans="1:11">
       <c r="C43" s="7"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="3:6">
+    <row r="44" spans="1:11">
       <c r="C44" s="7"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="3:6">
+    <row r="45" spans="1:11">
       <c r="C45" s="7"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="3:6">
+    <row r="46" spans="1:11">
       <c r="C46" s="7"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="3:6">
+    <row r="47" spans="1:11">
       <c r="C47" s="7"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="3:6">
+    <row r="48" spans="1:11">
       <c r="C48" s="7"/>
-      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="7"/>
@@ -1979,9 +2072,6 @@
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1994,8 +2084,10 @@
     <hyperlink ref="I19" r:id="rId6" xr:uid="{176A1FBF-143F-47E8-826D-D7DB3FCB4517}"/>
     <hyperlink ref="I24" r:id="rId7" xr:uid="{8A837595-3CDD-4C1C-963F-40A9CE8BB9D5}"/>
     <hyperlink ref="I30" r:id="rId8" xr:uid="{09AE7841-62BF-44C6-8150-9D0FC2675FAA}"/>
+    <hyperlink ref="I34" r:id="rId9" display="http://dpurl.cn/blNooGmz" xr:uid="{E1D67E5D-E7DB-45EF-AF72-BF40B7D08F05}"/>
+    <hyperlink ref="I33" r:id="rId10" xr:uid="{9802E24E-BCD7-435A-8428-F1F186A9AB07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>